--- a/soccer/seriea.xlsx
+++ b/soccer/seriea.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvray\OneDrive\Documents\Web Development\NBA TEAMS\nba_socmed_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/kirt_raynes_spglobal_com/Documents/Documents/Notebooks/NBA Teams/soccer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7C6BF3-007C-444F-B49F-3ED38AE4A7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BF7C6BF3-007C-444F-B49F-3ED38AE4A7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F71796AE-75BB-4E5B-858A-14200755C37E}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="3060" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feb 2024 Serie A" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -788,12 +801,12 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,7 +847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -869,7 +882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -904,7 +917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -939,7 +952,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -974,7 +987,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1009,7 +1022,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1044,7 +1057,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1079,7 +1092,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1114,7 +1127,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -1149,7 +1162,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -1184,7 +1197,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -1219,7 +1232,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -1254,7 +1267,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -1289,7 +1302,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -1324,7 +1337,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -1359,7 +1372,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -1394,7 +1407,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -1429,7 +1442,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -1464,7 +1477,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>121</v>
       </c>
@@ -1499,7 +1512,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>127</v>
       </c>

--- a/soccer/seriea.xlsx
+++ b/soccer/seriea.xlsx
@@ -798,7 +798,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
